--- a/DateBase/orders/dang顶顶顶_2024-10-12.xlsx
+++ b/DateBase/orders/dang顶顶顶_2024-10-12.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -775,10 +775,415 @@
       <c r="C41" t="str">
         <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>5</v>
+      </c>
+      <c r="C44" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>422_粉黛_pink muhly grass_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>441_蓝星球_Echinops_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>455_粉星花_tweedia pink_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>6</v>
+      </c>
+      <c r="C67" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F71" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F73" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>7</v>
+      </c>
+      <c r="C74" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F74" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>650_惯众蕨_undefined_undefined_undefinedundefined</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>8</v>
+      </c>
+      <c r="C78" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F79" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F81" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>267_多头美琴_mikoto spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>267_多头美琴_mikoto spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F85" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L90"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -836,7 +1241,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020105010201010101010105010201010102010101010101510103010101012101111110</v>
+        <v>02020105010201010101010105010201010102010101010101510103010101012101111111110201011510101653010101010101010206555105111111815151010102102010105341020100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/dang顶顶顶_2024-10-12.xlsx
+++ b/DateBase/orders/dang顶顶顶_2024-10-12.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,10 +1180,43 @@
       <c r="A90" t="str">
         <v>9</v>
       </c>
+      <c r="C90" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>10</v>
+      </c>
+      <c r="C92" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L90"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L93"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1241,7 +1274,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020105010201010101010105010201010102010101010101510103010101012101111111110201011510101653010101010101010206555105111111815151010102102010105341020100</v>
+        <v>0202010501020101010101010501020101010201010101010151010301010101210111111111020101151010165301010101010101020655510511111181515101010210201010534102010510207</v>
       </c>
     </row>
   </sheetData>
